--- a/1-Output/Export_Category.xlsx
+++ b/1-Output/Export_Category.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,439 +548,329 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>312</v>
+        <v>1089</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DAQ-Module</t>
+          <t>Pressure sensor</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>490</v>
+        <v>1130</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DAQ</t>
+          <t>SHED chamber</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>524</v>
+        <v>1139</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CAN Interface device</t>
+          <t>FID ppm C3H8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>548</v>
+        <v>1141</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CAN AD Module</t>
+          <t>Pressure sensor Absolute</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>628</v>
+        <v>1142</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pressure sensor</t>
+          <t>Pressure sensor relative</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>677</v>
+        <v>1149</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CAN Module</t>
+          <t xml:space="preserve"> HFID ppmC</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>793</v>
+        <v>1155</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CAN CNT Module</t>
+          <t>Gas flowmeter C4H10</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>796</v>
+        <v>1156</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CAN TH Module</t>
+          <t>Gas flowmeter N2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>827</v>
+        <v>1157</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CAN TH MiniModule</t>
+          <t>Gas flowmeter Air</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>833</v>
+        <v>1198</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Connector accessory</t>
+          <t>Pressure gauge</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>840</v>
+        <v>1763</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Multifonction test station</t>
+          <t>DAQ-Module</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>859</v>
+        <v>1819</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Terminal Block</t>
+          <t>DAQ</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>877</v>
+        <v>2019</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Shunt</t>
+          <t>DAQ-module</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>1015</v>
+        <v>2268</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CAN interface device</t>
+          <t>Load sensor - 1 kN</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>1130</v>
+        <v>2270</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SHED chamber</t>
+          <t>Speed sensor</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>1139</v>
+        <v>2273</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FID ppm C3H8</t>
+          <t>Ball Mass</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>1141</v>
+        <v>2308</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pressure sensor Absolute</t>
+          <t>Soaking</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>1142</v>
+        <v>2318</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pressure sensor relative</t>
+          <t>Load sensor - 0,1 kN</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>1149</v>
+        <v>2319</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HFID ppmC</t>
+          <t>Calibrated mass</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>1155</v>
+        <v>2366</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Gas flowmeter C4H10</t>
+          <t xml:space="preserve">Pressure sensor </t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>1156</v>
+        <v>2457</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Gas flowmeter N2</t>
+          <t>Temperature sensor</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>1157</v>
+        <v>2734</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Gas flowmeter Air</t>
+          <t>Volumeter water</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>1198</v>
+        <v>2735</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pressure gauge</t>
+          <t>Volumeter glycol</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>2019</v>
+        <v>2768</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DAQ-module</t>
+          <t>Pressure regulator</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>2268</v>
+        <v>2841</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Load sensor - 1 kN</t>
+          <t>Impulse Force Test Hammer</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>2270</v>
+        <v>2842</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Speed sensor</t>
+          <t>Frequency calibrator</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>2273</v>
+        <v>2856</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ball Mass</t>
+          <t>Filter</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>2308</v>
+        <v>2874</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Soaking</t>
+          <t xml:space="preserve">calibration </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>2318</v>
+        <v>3246</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Load sensor - 0,1 kN</t>
+          <t>Thermometer</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>2319</v>
+        <v>3453</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Calibrated mass</t>
+          <t>Scale</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>2366</v>
+        <v>4092</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pressure sensor </t>
+          <t>Flowmeter</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>2457</v>
+        <v>4098</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Temperature sensor</t>
+          <t>Thermocouple</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>2734</v>
+        <v>4169</v>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>Volumeter water</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>2735</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Volumeter glycol</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>2768</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Pressure regulator</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>2841</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Impulse Force Test Hammer</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>2842</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Frequency calibrator</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>2856</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Filter</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>2874</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">calibration </t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>3246</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Thermometer</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>3453</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Scale</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>4092</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Flowmeter</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>4098</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Thermocouple</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>4169</v>
-      </c>
-      <c r="B56" t="inlineStr">
         <is>
           <t>Measuring chain</t>
         </is>

--- a/1-Output/Export_Category.xlsx
+++ b/1-Output/Export_Category.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,435 +444,729 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Multimeter</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Power supply</t>
+          <t>Dynamometer [5 25Nm]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Scale [&lt;20kg]</t>
+          <t>Oscilloscope [70 Mhz]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Temperature sensors and gages</t>
+          <t>Power supply</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pressure sensors and gages</t>
+          <t>Pressure sensor [-1 +16 bar]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Leak detectors</t>
+          <t>Torque wrench</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Acquisition module</t>
+          <t>Analog function generator</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Torque wrench</t>
+          <t>Ohmmeter</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Standard gages</t>
+          <t>Gauge [0-300mm]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ohmmeter</t>
+          <t>Pressure gauge [-350 +350 mbar]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Scale [&gt;= 20kg]</t>
+          <t>Gauge [0-150mm]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>1089</v>
+        <v>38</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pressure sensor</t>
+          <t>SHED chamber</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>1130</v>
+        <v>39</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SHED chamber</t>
+          <t>Leak detectors</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1139</v>
+        <v>41</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FID ppm C3H8</t>
+          <t>Climatic chamber &gt;2m3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1141</v>
+        <v>42</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pressure sensor Absolute</t>
+          <t>Pressure sensor [-400 +400 mbar]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>1142</v>
+        <v>43</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pressure sensor relative</t>
+          <t>Pressure sensor [-500 +500 mbar]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1149</v>
+        <v>44</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HFID ppmC</t>
+          <t>Climatic chamber ATEX [+40°C]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1155</v>
+        <v>47</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Gas flowmeter C4H10</t>
+          <t>Climatic chamber ATEX [-40 +70°C]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1156</v>
+        <v>49</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Gas flowmeter N2</t>
+          <t>Pressure sensor [0 +100 mbar]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1157</v>
+        <v>56</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Gas flowmeter Air</t>
+          <t>Volumeter Petrol</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>1198</v>
+        <v>57</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pressure gauge</t>
+          <t>Volumeter Diesel</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>1763</v>
+        <v>59</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DAQ-Module</t>
+          <t>LVDT sensor [0 +100mm]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>1819</v>
+        <v>89</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DAQ</t>
+          <t>Pressure sensor [-300 +600 mbar]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>2019</v>
+        <v>94</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DAQ-module</t>
+          <t>Thermocouple [K]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>2268</v>
+        <v>104</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Load sensor - 1 kN</t>
+          <t>Tensile machine</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>2270</v>
+        <v>106</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Speed sensor</t>
+          <t>Load sensor [0 10kN]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>2273</v>
+        <v>107</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ball Mass</t>
+          <t>Caliper [0 160 mm]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>2308</v>
+        <v>108</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Soaking</t>
+          <t>Caliper [0 150 mm]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>2318</v>
+        <v>109</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Load sensor - 0,1 kN</t>
+          <t>DAQ-Module</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>2319</v>
+        <v>113</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Calibrated mass</t>
+          <t>Load sensor [1 kN]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>2366</v>
+        <v>114</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pressure sensor </t>
+          <t>Speed sensor</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>2457</v>
+        <v>115</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Temperature sensor</t>
+          <t>Gauge [0 500 mm]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>2734</v>
+        <v>118</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Volumeter water</t>
+          <t>Tensile Machine</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>2735</v>
+        <v>119</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Volumeter glycol</t>
+          <t>Temperature sensor [-40 +190°C]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>2768</v>
+        <v>124</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pressure regulator</t>
+          <t>Pressure sensor [0 +250 mbar]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>2841</v>
+        <v>126</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Impulse Force Test Hammer</t>
+          <t>Pressure sensor [-100 +200 mbar]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>2842</v>
+        <v>127</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Frequency calibrator</t>
+          <t>Pressure sensor [0 +1 bar]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>2856</v>
+        <v>131</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Filter</t>
+          <t>Pressure sensor [0 +10 bar]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>2874</v>
+        <v>132</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">calibration </t>
+          <t>Needle comparator [0 10 mm]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3246</v>
+        <v>135</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Thermometer</t>
+          <t>Torque wrench [+40 +200 Nm]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3453</v>
+        <v>141</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Scale</t>
+          <t>Pressure sensor [0 +70 mbar]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4092</v>
+        <v>145</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Flowmeter</t>
+          <t>Pressure sensor [-100 +100 mbar]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4098</v>
+        <v>146</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Thermocouple</t>
+          <t>Pressure gauge [0 +2,5 bar]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4169</v>
+        <v>147</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Measuring chain</t>
+          <t>Pressure sensor [0 +200 mbar]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Pressure gauge [-1 +3 bar]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Acquisition module</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Torque wrench [20 100 Nm]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Gas flowmeter air</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Pressure gauge [0 +10 bar]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Caliper [0 200 mm]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Volumeter [Water]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Pressure gauge [0 +600 mbar]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Volumeter [Glycol]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Pendulum Impact</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Dynamometer [0 5kN]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Accelerometer</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Thickness gauge</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Gauge</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>3D Measurement Arm</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Mesure 3D</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Caliper [200 mm]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Grit roughness</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Mass flow meter</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Pressure sensor [-200 +200 mbar]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Caliper [0 500 mm]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Climatic chamber &lt;2m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Pressure gauge [+1 +3 bar]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Indicator</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Pressure sensor [-200 200 mbar]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Thermocouple [T]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Acquisition unit</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Refractometer</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Scale [0 20 kg]</t>
         </is>
       </c>
     </row>
